--- a/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
+++ b/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,7 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="3285"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PosGeneral_SimGau" sheetId="1" r:id="rId1"/>
+    <sheet name="PosGeneral_SimCorrcoef" sheetId="2" r:id="rId2"/>
+    <sheet name="Possibility" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,10 +26,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>Original Matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> band1 </t>
@@ -166,15 +168,15 @@
   </si>
   <si>
     <t>Gaussian Matching</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Picture total scaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Box120_VNIR_sample1</t>
@@ -196,23 +198,23 @@
   </si>
   <si>
     <t>Band1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Band2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Band3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Band1-GauSim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Band2-GauSim</t>
@@ -221,26 +223,46 @@
     <t>Band3-GauSim</t>
   </si>
   <si>
-    <t>Band1-OriSim-Sum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Band2-OriSim-Sum</t>
-  </si>
-  <si>
-    <t>Band3-OriSim-Sum</t>
-  </si>
-  <si>
     <t>average-picScaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>picScaling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Band_depth_threshold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band1-Sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band2-Sum</t>
+  </si>
+  <si>
+    <t>Band3-Sum</t>
+  </si>
+  <si>
+    <t>AVG_Band</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.3,0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zircon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calcite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dolomite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -250,13 +272,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,8 +301,141 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +460,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -307,20 +660,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -332,10 +841,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -344,12 +853,82 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="50">
+    <cellStyle name="20% - Accent1 2" xfId="22"/>
+    <cellStyle name="20% - Accent2 2" xfId="26"/>
+    <cellStyle name="20% - Accent3 2" xfId="30"/>
+    <cellStyle name="20% - Accent4 2" xfId="34"/>
+    <cellStyle name="20% - Accent5 2" xfId="38"/>
+    <cellStyle name="20% - Accent6 2" xfId="42"/>
+    <cellStyle name="40% - Accent1 2" xfId="23"/>
+    <cellStyle name="40% - Accent2 2" xfId="27"/>
+    <cellStyle name="40% - Accent3 2" xfId="31"/>
+    <cellStyle name="40% - Accent4 2" xfId="35"/>
+    <cellStyle name="40% - Accent5 2" xfId="39"/>
+    <cellStyle name="40% - Accent6 2" xfId="43"/>
+    <cellStyle name="60% - Accent1 2" xfId="24"/>
+    <cellStyle name="60% - Accent2 2" xfId="28"/>
+    <cellStyle name="60% - Accent3 2" xfId="32"/>
+    <cellStyle name="60% - Accent4 2" xfId="36"/>
+    <cellStyle name="60% - Accent5 2" xfId="40"/>
+    <cellStyle name="60% - Accent6 2" xfId="44"/>
+    <cellStyle name="Accent1 2" xfId="21"/>
+    <cellStyle name="Accent2 2" xfId="25"/>
+    <cellStyle name="Accent3 2" xfId="29"/>
+    <cellStyle name="Accent4 2" xfId="33"/>
+    <cellStyle name="Accent5 2" xfId="37"/>
+    <cellStyle name="Accent6 2" xfId="41"/>
+    <cellStyle name="Bad 2" xfId="3"/>
+    <cellStyle name="Calculation 2" xfId="14"/>
+    <cellStyle name="Check Cell 2" xfId="16"/>
+    <cellStyle name="Explanatory Text 2" xfId="19"/>
+    <cellStyle name="Good 2" xfId="2"/>
+    <cellStyle name="Heading 1 2" xfId="8"/>
+    <cellStyle name="Heading 2 2" xfId="9"/>
+    <cellStyle name="Heading 3 2" xfId="10"/>
+    <cellStyle name="Heading 4 2" xfId="11"/>
+    <cellStyle name="Input 2" xfId="12"/>
+    <cellStyle name="Linked Cell 2" xfId="15"/>
+    <cellStyle name="Neutral 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 2 2" xfId="47"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="46"/>
+    <cellStyle name="Normal 4 2" xfId="45"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Note 2" xfId="48"/>
+    <cellStyle name="Note 3" xfId="18"/>
+    <cellStyle name="Output 2" xfId="13"/>
+    <cellStyle name="Percent 2" xfId="49"/>
+    <cellStyle name="Title 2" xfId="7"/>
+    <cellStyle name="Total 2" xfId="20"/>
+    <cellStyle name="Warning Text 2" xfId="17"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -420,7 +999,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>PosGeneral_SimGau!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -498,7 +1077,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>PosGeneral_SimGau!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -525,7 +1104,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>PosGeneral_SimGau!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -560,11 +1139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117299528"/>
-        <c:axId val="116981568"/>
+        <c:axId val="368291336"/>
+        <c:axId val="368286632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117299528"/>
+        <c:axId val="368291336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,12 +1200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="116981568"/>
+        <c:crossAx val="368286632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116981568"/>
+        <c:axId val="368286632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,7 +1262,1893 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117299528"/>
+        <c:crossAx val="368291336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGeneral_SimCorrcoef!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG_Band</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8169666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9161000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4725333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1473333333333335E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1752000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.146333333333333E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430520512"/>
+        <c:axId val="430518160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430520512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430518160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430518160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430520512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGeneral_SimCorrcoef!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5,0.3,0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9684799999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0155599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.55131E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7634000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2617000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7682999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430517768"/>
+        <c:axId val="430524824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430517768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430524824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430524824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430517768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band2-Amount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Possibility!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Possibility!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.7659000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2797000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5631E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3976000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0589999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4986999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Possibility!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434576360"/>
+        <c:axId val="434568520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434576360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434568520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434568520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434576360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band2-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Amount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Possibility!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Possibility!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13438700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17983199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22908500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16220300000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16613600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Possibility!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434567736"/>
+        <c:axId val="434573616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434567736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434573616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434573616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434567736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band3-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Amount</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Possibility!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Possibility!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4022999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4216999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0281E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2799E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5295999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0333999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Possibility!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434581064"/>
+        <c:axId val="434569304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434581064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434569304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434569304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434581064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -788,7 +3253,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>PosGeneral_SimGau!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -866,7 +3331,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>PosGeneral_SimGau!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -893,7 +3358,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>PosGeneral_SimGau!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -928,11 +3393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343029728"/>
-        <c:axId val="343030120"/>
+        <c:axId val="368292512"/>
+        <c:axId val="368293688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343029728"/>
+        <c:axId val="368292512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -989,12 +3454,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343030120"/>
+        <c:crossAx val="368293688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343030120"/>
+        <c:axId val="368293688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +3516,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343029728"/>
+        <c:crossAx val="368292512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1156,7 +3621,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$2</c:f>
+              <c:f>PosGeneral_SimGau!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1234,7 +3699,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>PosGeneral_SimGau!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1261,7 +3726,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:f>PosGeneral_SimGau!$G$3:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1296,11 +3761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343026984"/>
-        <c:axId val="412792816"/>
+        <c:axId val="368292904"/>
+        <c:axId val="368287808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343026984"/>
+        <c:axId val="368292904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,12 +3822,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412792816"/>
+        <c:crossAx val="368287808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412792816"/>
+        <c:axId val="368287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +3884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343026984"/>
+        <c:crossAx val="368292904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1483,6 +3948,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1523,7 +3989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$2</c:f>
+              <c:f>PosGeneral_SimGau!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1568,6 +4034,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1600,7 +4067,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>PosGeneral_SimGau!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1627,7 +4094,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$3:$N$8</c:f>
+              <c:f>PosGeneral_SimGau!$N$3:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1662,11 +4129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412798304"/>
-        <c:axId val="412793600"/>
+        <c:axId val="368287416"/>
+        <c:axId val="368289768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412798304"/>
+        <c:axId val="368287416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,12 +4190,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412793600"/>
+        <c:crossAx val="368289768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412793600"/>
+        <c:axId val="368289768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,7 +4252,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412798304"/>
+        <c:crossAx val="368287416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1889,7 +4356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$2</c:f>
+              <c:f>PosGeneral_SimGau!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1922,7 +4389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>PosGeneral_SimGau!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1949,7 +4416,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$3:$O$8</c:f>
+              <c:f>PosGeneral_SimGau!$O$3:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1984,11 +4451,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412800264"/>
-        <c:axId val="412798696"/>
+        <c:axId val="368293296"/>
+        <c:axId val="368294080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412800264"/>
+        <c:axId val="368293296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,12 +4512,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412798696"/>
+        <c:crossAx val="368294080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412798696"/>
+        <c:axId val="368294080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +4574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412800264"/>
+        <c:crossAx val="368293296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2211,7 +4678,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$2</c:f>
+              <c:f>PosGeneral_SimGau!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2288,7 +4755,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:f>PosGeneral_SimGau!$K$3:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2315,7 +4782,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$3:$P$8</c:f>
+              <c:f>PosGeneral_SimGau!$P$3:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2350,11 +4817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412794384"/>
-        <c:axId val="412794776"/>
+        <c:axId val="368290160"/>
+        <c:axId val="368290552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412794384"/>
+        <c:axId val="368290160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2411,12 +4878,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412794776"/>
+        <c:crossAx val="368290552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412794776"/>
+        <c:axId val="368290552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2473,7 +4940,1111 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412794384"/>
+        <c:crossAx val="368290160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGeneral_SimCorrcoef!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Band1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0653000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3838999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3443999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5138000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3568999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="368288200"/>
+        <c:axId val="368292120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="368288200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368292120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="368292120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368288200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGeneral_SimCorrcoef!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Band2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.5871000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5073E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.1730000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.9581999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0244000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1901999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430522080"/>
+        <c:axId val="430520120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430522080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430520120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430520120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430522080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGeneral_SimCorrcoef!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Band3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGeneral_SimCorrcoef!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7984999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8571000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5800999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.58E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9873999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7720000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="430519336"/>
+        <c:axId val="430521296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="430519336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430521296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430521296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430519336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2523,6 +6094,206 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2762,6 +6533,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3278,7 +7169,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3794,7 +7685,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4310,7 +8201,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4826,7 +8717,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5342,7 +9233,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5858,20 +9749,4148 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5892,14 +13911,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
@@ -5922,16 +13941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6035,6 +14054,256 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6308,8 +14577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6350,10 +14619,10 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>55</v>
@@ -6365,13 +14634,13 @@
         <v>57</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
@@ -6691,7 +14960,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="10">
         <v>7.4999999999999997E-3</v>
@@ -7368,9 +15637,606 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="C3">
+        <v>4.0947999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>2365.8605600000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4.0653000000000002E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>4.5871000000000002E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.7984999999999999E-2</v>
+      </c>
+      <c r="H3" s="5">
+        <f>AVERAGE(E3:G3)</f>
+        <v>3.8169666666666664E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <f>0.5*E3+0.3*F3+0.2*G3</f>
+        <v>3.9684799999999999E-2</v>
+      </c>
+      <c r="J3" s="12">
+        <v>9.7620000000000005</v>
+      </c>
+      <c r="K3" s="14">
+        <v>9.8360000000000003</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0.99399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2.4220000000000002</v>
+      </c>
+      <c r="C4">
+        <v>1.9951E-2</v>
+      </c>
+      <c r="D4">
+        <v>2484.6234880000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.3838999999999999E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.5073E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.8571000000000001E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H8" si="0">AVERAGE(E4:G4)</f>
+        <v>1.9161000000000001E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I8" si="1">0.5*E4+0.3*F4+0.2*G4</f>
+        <v>2.0155599999999999E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="K4" s="15">
+        <v>10.317</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1.2170000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.5051E-2</v>
+      </c>
+      <c r="D5">
+        <v>323.80242600000003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.9202E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9.1730000000000006E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.5800999999999999E-2</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4725333333333333E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>1.55131E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>5.516</v>
+      </c>
+      <c r="K5" s="15">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1.0509999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.175</v>
+      </c>
+      <c r="C6">
+        <v>-1.8900000000000001E-4</v>
+      </c>
+      <c r="D6">
+        <v>-24.523599000000001</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.3443999999999999E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>-1.9581999999999999E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9.58E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1473333333333335E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>2.7634000000000001E-3</v>
+      </c>
+      <c r="J6" s="13">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1.1040000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="C7">
+        <v>2.2931E-2</v>
+      </c>
+      <c r="D7">
+        <v>1905.846086</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.5138000000000001E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.0244000000000002E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.9873999999999999E-2</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.1752000000000004E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2617000000000002E-2</v>
+      </c>
+      <c r="J7" s="13">
+        <v>6.68</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="C8">
+        <v>2.4979999999999998E-3</v>
+      </c>
+      <c r="D8">
+        <v>258.68174299999998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.3568999999999999E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-1.1901999999999999E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>7.7720000000000003E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>3.146333333333333E-3</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>4.7682999999999996E-3</v>
+      </c>
+      <c r="J8" s="13">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="K8" s="15">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8.7659000000000001E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.13438700000000001</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.4022999999999998E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>AVERAGE(B3:D3)</f>
+        <v>8.5356333333333326E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <f>0.5*B3+0.3*C3+0.2*D3</f>
+        <v>9.0950199999999995E-2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9.7620000000000005</v>
+      </c>
+      <c r="H3" s="14">
+        <v>9.8360000000000003</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.8330000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.2797000000000001E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.17983199999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.4216999999999999E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E8" si="0">AVERAGE(B4:D4)</f>
+        <v>9.2281999999999989E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F8" si="1">0.5*B4+0.3*C4+0.2*D4</f>
+        <v>9.5191499999999984E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="H4" s="15">
+        <v>10.317</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
+        <v>5.5631E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.129409</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0281E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>6.8440333333333325E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0694399999999991E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5.516</v>
+      </c>
+      <c r="H5" s="15">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.6160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.3976000000000001E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.22908500000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.2799E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>9.5286666666666672E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>9.3273300000000003E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.0589999999999998E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.16220300000000001</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.5295999999999999E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>8.269633333333333E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>8.4015099999999995E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6.68</v>
+      </c>
+      <c r="H7" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1.006</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3.4986999999999997E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.16613600000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.0333999999999999E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>7.0485666666666669E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>6.9401099999999993E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="H8" s="15">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.3759999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
+++ b/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="3285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="3285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PosGeneral_SimGau" sheetId="1" r:id="rId1"/>
     <sheet name="PosGeneral_SimCorrcoef" sheetId="2" r:id="rId2"/>
     <sheet name="Possibility" sheetId="3" r:id="rId3"/>
+    <sheet name="PosGen_SimFrechet" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
   <si>
     <t>Original Matching</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1139,11 +1140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368291336"/>
-        <c:axId val="368286632"/>
+        <c:axId val="359375520"/>
+        <c:axId val="359377088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368291336"/>
+        <c:axId val="359375520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,12 +1201,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368286632"/>
+        <c:crossAx val="359377088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368286632"/>
+        <c:axId val="359377088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1262,7 +1263,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368291336"/>
+        <c:crossAx val="359375520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1507,11 +1508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430520512"/>
-        <c:axId val="430518160"/>
+        <c:axId val="360497568"/>
+        <c:axId val="360498744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430520512"/>
+        <c:axId val="360497568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,12 +1569,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430518160"/>
+        <c:crossAx val="360498744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430518160"/>
+        <c:axId val="360498744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1630,7 +1631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430520512"/>
+        <c:crossAx val="360497568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1875,11 +1876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430517768"/>
-        <c:axId val="430524824"/>
+        <c:axId val="360502664"/>
+        <c:axId val="360504232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430517768"/>
+        <c:axId val="360502664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,12 +1937,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430524824"/>
+        <c:crossAx val="360504232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430524824"/>
+        <c:axId val="360504232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1999,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430517768"/>
+        <c:crossAx val="360502664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2268,11 +2269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434576360"/>
-        <c:axId val="434568520"/>
+        <c:axId val="359378656"/>
+        <c:axId val="359379048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434576360"/>
+        <c:axId val="359378656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,12 +2330,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434568520"/>
+        <c:crossAx val="359379048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434568520"/>
+        <c:axId val="359379048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2392,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434576360"/>
+        <c:crossAx val="359378656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2624,11 +2625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434567736"/>
-        <c:axId val="434573616"/>
+        <c:axId val="359371992"/>
+        <c:axId val="359372384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434567736"/>
+        <c:axId val="359371992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,12 +2686,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434573616"/>
+        <c:crossAx val="359372384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434573616"/>
+        <c:axId val="359372384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2747,7 +2748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434567736"/>
+        <c:crossAx val="359371992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3025,11 +3026,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434581064"/>
-        <c:axId val="434569304"/>
+        <c:axId val="427146480"/>
+        <c:axId val="427144912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434581064"/>
+        <c:axId val="427146480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,12 +3087,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434569304"/>
+        <c:crossAx val="427144912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434569304"/>
+        <c:axId val="427144912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3149,1141 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434581064"/>
+        <c:crossAx val="427146480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGen_SimFrechet!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.3730000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1232000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6077E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6794E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1180999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9152999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="427140992"/>
+        <c:axId val="430157312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="427140992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430157312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="430157312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427140992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGen_SimFrechet!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.106961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14255999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17202100000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.128048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12737899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506495448"/>
+        <c:axId val="506494664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506495448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506494664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506494664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506495448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Band3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PosGen_SimFrechet!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8923000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0711E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6929E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.162E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7139999999999995E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PosGen_SimFrechet!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506494272"/>
+        <c:axId val="506492312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506494272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506492312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="506492312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506494272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3393,11 +4528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368292512"/>
-        <c:axId val="368293688"/>
+        <c:axId val="359375912"/>
+        <c:axId val="359375128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368292512"/>
+        <c:axId val="359375912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3454,12 +4589,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368293688"/>
+        <c:crossAx val="359375128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368293688"/>
+        <c:axId val="359375128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,7 +4651,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368292512"/>
+        <c:crossAx val="359375912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3761,11 +4896,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368292904"/>
-        <c:axId val="368287808"/>
+        <c:axId val="359374736"/>
+        <c:axId val="359378264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368292904"/>
+        <c:axId val="359374736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,12 +4957,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368287808"/>
+        <c:crossAx val="359378264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368287808"/>
+        <c:axId val="359378264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +5019,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368292904"/>
+        <c:crossAx val="359374736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4129,11 +5264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368287416"/>
-        <c:axId val="368289768"/>
+        <c:axId val="359372776"/>
+        <c:axId val="359373168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368287416"/>
+        <c:axId val="359372776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4190,12 +5325,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368289768"/>
+        <c:crossAx val="359373168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368289768"/>
+        <c:axId val="359373168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +5387,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368287416"/>
+        <c:crossAx val="359372776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4451,11 +5586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368293296"/>
-        <c:axId val="368294080"/>
+        <c:axId val="359374344"/>
+        <c:axId val="360499136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368293296"/>
+        <c:axId val="359374344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,12 +5647,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368294080"/>
+        <c:crossAx val="360499136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368294080"/>
+        <c:axId val="360499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4574,7 +5709,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368293296"/>
+        <c:crossAx val="359374344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4817,11 +5952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368290160"/>
-        <c:axId val="368290552"/>
+        <c:axId val="360503056"/>
+        <c:axId val="360499528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368290160"/>
+        <c:axId val="360503056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4878,12 +6013,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368290552"/>
+        <c:crossAx val="360499528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368290552"/>
+        <c:axId val="360499528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,7 +6075,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368290160"/>
+        <c:crossAx val="360503056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5185,11 +6320,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="368288200"/>
-        <c:axId val="368292120"/>
+        <c:axId val="360497176"/>
+        <c:axId val="360501880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="368288200"/>
+        <c:axId val="360497176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5246,12 +6381,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368292120"/>
+        <c:crossAx val="360501880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="368292120"/>
+        <c:axId val="360501880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5308,7 +6443,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368288200"/>
+        <c:crossAx val="360497176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5553,11 +6688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430522080"/>
-        <c:axId val="430520120"/>
+        <c:axId val="360501488"/>
+        <c:axId val="360500312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430522080"/>
+        <c:axId val="360501488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5614,12 +6749,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430520120"/>
+        <c:crossAx val="360500312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430520120"/>
+        <c:axId val="360500312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5676,7 +6811,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430522080"/>
+        <c:crossAx val="360501488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5921,11 +7056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430519336"/>
-        <c:axId val="430521296"/>
+        <c:axId val="360501096"/>
+        <c:axId val="360503448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430519336"/>
+        <c:axId val="360501096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5982,12 +7117,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430521296"/>
+        <c:crossAx val="360503448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430521296"/>
+        <c:axId val="360503448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6044,7 +7179,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430519336"/>
+        <c:crossAx val="360501096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6294,6 +7429,126 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9234,6 +10489,1554 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14312,6 +17115,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1243012</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1166812</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14577,8 +17475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15969,7 +18867,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J8" sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16239,4 +19137,278 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.106961</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.8923000000000001E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>AVERAGE(B3:D3)</f>
+        <v>6.9871333333333327E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <f>0.5*B3+0.3*C3+0.2*D3</f>
+        <v>7.4737899999999996E-2</v>
+      </c>
+      <c r="G3" s="12">
+        <v>9.7620000000000005</v>
+      </c>
+      <c r="H3" s="14">
+        <v>9.8360000000000003</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J3" s="6">
+        <v>2.8330000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.1232000000000002E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.14255999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.0711E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E8" si="0">AVERAGE(B4:D4)</f>
+        <v>7.4834333333333336E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F8" si="1">0.5*B4+0.3*C4+0.2*D4</f>
+        <v>7.752619999999999E-2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="H4" s="15">
+        <v>10.317</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4.6077E-2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.101796</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.6929E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4934000000000004E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>5.6963099999999996E-2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>5.516</v>
+      </c>
+      <c r="H5" s="15">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.6160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.6794E-2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.17202100000000001</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.0801E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3205333333333331E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="1"/>
+        <v>7.2163500000000005E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="I6" s="17">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.1180999999999997E-2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.128048</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.162E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6949666666666671E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8328899999999984E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>6.68</v>
+      </c>
+      <c r="H7" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1.006</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2.9152999999999998E-2</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.12737899999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>8.7139999999999995E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5081999999999999E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4532999999999998E-2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="H8" s="15">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1.3759999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
+++ b/Vincent/Excel_analyze/Exp7(MGM fitting)/PosSimScaling res/SimPosAna.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="3285" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4155" windowHeight="3285"/>
   </bookViews>
   <sheets>
     <sheet name="PosGeneral_SimGau" sheetId="1" r:id="rId1"/>
     <sheet name="PosGeneral_SimCorrcoef" sheetId="2" r:id="rId2"/>
     <sheet name="Possibility" sheetId="3" r:id="rId3"/>
     <sheet name="PosGen_SimFrechet" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
   <si>
     <t>Original Matching</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -48,13 +49,7 @@
     <t>Box120_VNIR_sample1.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 4182.626585 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 57777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture total scaling: 4556.419618 average: 0.078862 </t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -63,67 +58,34 @@
     <t>Box120_VNIR_sample2.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 7975.318436 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 124534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture total scaling: 11453.095036 average: 0.091968 </t>
   </si>
   <si>
     <t>Box120_VNIR_sample3.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 937.946797 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 21513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture total scaling: 1330.811762 average: 0.061861 </t>
   </si>
   <si>
     <t>Box120_VNIR_sample4.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 4618.762488 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 130003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture total scaling: 9917.558920 average: 0.076287 </t>
   </si>
   <si>
     <t>Box120_VNIR_sample5.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 4366.250051 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 83112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture total scaling: 6463.576209 average: 0.077769 </t>
   </si>
   <si>
     <t>Box120_VNIR_sample6.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">Summation of Scaling: 2862.842749 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.000000, the number of total pixels: 103537</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture total scaling: 6199.622718 average: 0.059878 </t>
-  </si>
-  <si>
     <t xml:space="preserve"> center match (possibility) method: general</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> scaling(similarity) method: Original </t>
   </si>
   <si>
     <t xml:space="preserve"> Smooth or not: 1 </t>
@@ -263,6 +225,32 @@
   </si>
   <si>
     <t>Dolomite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whole Scene</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Num of pixels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Band2</t>
+  </si>
+  <si>
+    <t>Band3</t>
+  </si>
+  <si>
+    <t>Summation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,11 +1128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359375520"/>
-        <c:axId val="359377088"/>
+        <c:axId val="309670712"/>
+        <c:axId val="309672280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359375520"/>
+        <c:axId val="309670712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,12 +1189,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359377088"/>
+        <c:crossAx val="309672280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359377088"/>
+        <c:axId val="309672280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,7 +1251,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359375520"/>
+        <c:crossAx val="309670712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1508,11 +1496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360497568"/>
-        <c:axId val="360498744"/>
+        <c:axId val="366155592"/>
+        <c:axId val="366151280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360497568"/>
+        <c:axId val="366155592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,12 +1557,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360498744"/>
+        <c:crossAx val="366151280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360498744"/>
+        <c:axId val="366151280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1631,7 +1619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360497568"/>
+        <c:crossAx val="366155592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1876,11 +1864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360502664"/>
-        <c:axId val="360504232"/>
+        <c:axId val="366154024"/>
+        <c:axId val="366152848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360502664"/>
+        <c:axId val="366154024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,12 +1925,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360504232"/>
+        <c:crossAx val="366152848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360504232"/>
+        <c:axId val="366152848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1999,7 +1987,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360502664"/>
+        <c:crossAx val="366154024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2269,11 +2257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359378656"/>
-        <c:axId val="359379048"/>
+        <c:axId val="366154416"/>
+        <c:axId val="366150888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359378656"/>
+        <c:axId val="366154416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,12 +2318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359379048"/>
+        <c:crossAx val="366150888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359379048"/>
+        <c:axId val="366150888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2380,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359378656"/>
+        <c:crossAx val="366154416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2625,11 +2613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359371992"/>
-        <c:axId val="359372384"/>
+        <c:axId val="366152456"/>
+        <c:axId val="366153240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359371992"/>
+        <c:axId val="366152456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,12 +2674,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359372384"/>
+        <c:crossAx val="366153240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359372384"/>
+        <c:axId val="366153240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2736,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359371992"/>
+        <c:crossAx val="366152456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3026,11 +3014,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427146480"/>
-        <c:axId val="427144912"/>
+        <c:axId val="366153632"/>
+        <c:axId val="366155984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427146480"/>
+        <c:axId val="366153632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,12 +3075,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427144912"/>
+        <c:crossAx val="366155984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="427144912"/>
+        <c:axId val="366155984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3137,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427146480"/>
+        <c:crossAx val="366153632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3419,11 +3407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="427140992"/>
-        <c:axId val="430157312"/>
+        <c:axId val="366149712"/>
+        <c:axId val="366150104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="427140992"/>
+        <c:axId val="366149712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,12 +3468,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430157312"/>
+        <c:crossAx val="366150104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430157312"/>
+        <c:axId val="366150104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3542,7 +3530,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427140992"/>
+        <c:crossAx val="366149712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3767,11 +3755,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506495448"/>
-        <c:axId val="506494664"/>
+        <c:axId val="365654440"/>
+        <c:axId val="366433616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="506495448"/>
+        <c:axId val="365654440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,12 +3816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506494664"/>
+        <c:crossAx val="366433616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506494664"/>
+        <c:axId val="366433616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3890,7 +3878,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506495448"/>
+        <c:crossAx val="365654440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4160,11 +4148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506494272"/>
-        <c:axId val="506492312"/>
+        <c:axId val="366430872"/>
+        <c:axId val="366435576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="506494272"/>
+        <c:axId val="366430872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4221,12 +4209,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506492312"/>
+        <c:crossAx val="366435576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506492312"/>
+        <c:axId val="366435576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4271,748 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506494272"/>
+        <c:crossAx val="366430872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>band1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5703000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2881999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7531999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7831999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2483000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0022E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="366435184"/>
+        <c:axId val="366434792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="366435184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366434792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366434792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366435184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>band2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.11171399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14912400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.106762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18365600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.134135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13486699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="431889744"/>
+        <c:axId val="431898760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="431889744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431898760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="431898760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431889744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4528,11 +5257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359375912"/>
-        <c:axId val="359375128"/>
+        <c:axId val="309673456"/>
+        <c:axId val="309666400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359375912"/>
+        <c:axId val="309673456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,12 +5318,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359375128"/>
+        <c:crossAx val="309666400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359375128"/>
+        <c:axId val="309666400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4651,7 +5380,400 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359375912"/>
+        <c:crossAx val="309673456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>band3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Amount</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-CN"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9609E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1179E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7426000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.108E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2103999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9429999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369846400"/>
+        <c:axId val="366431656"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369846400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366431656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="366431656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369846400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4896,11 +6018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359374736"/>
-        <c:axId val="359378264"/>
+        <c:axId val="365658360"/>
+        <c:axId val="365656008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359374736"/>
+        <c:axId val="365658360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,12 +6079,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359378264"/>
+        <c:crossAx val="365656008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359378264"/>
+        <c:axId val="365656008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,7 +6141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359374736"/>
+        <c:crossAx val="365658360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5264,11 +6386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359372776"/>
-        <c:axId val="359373168"/>
+        <c:axId val="365653656"/>
+        <c:axId val="365654048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359372776"/>
+        <c:axId val="365653656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,12 +6447,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359373168"/>
+        <c:crossAx val="365654048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359373168"/>
+        <c:axId val="365654048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +6509,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359372776"/>
+        <c:crossAx val="365653656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5586,11 +6708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359374344"/>
-        <c:axId val="360499136"/>
+        <c:axId val="365656792"/>
+        <c:axId val="365659536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359374344"/>
+        <c:axId val="365656792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5647,12 +6769,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360499136"/>
+        <c:crossAx val="365659536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360499136"/>
+        <c:axId val="365659536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5709,7 +6831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359374344"/>
+        <c:crossAx val="365656792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5952,11 +7074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360503056"/>
-        <c:axId val="360499528"/>
+        <c:axId val="365657184"/>
+        <c:axId val="365652872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360503056"/>
+        <c:axId val="365657184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6013,12 +7135,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360499528"/>
+        <c:crossAx val="365652872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360499528"/>
+        <c:axId val="365652872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6075,7 +7197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360503056"/>
+        <c:crossAx val="365657184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6320,11 +7442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360497176"/>
-        <c:axId val="360501880"/>
+        <c:axId val="365660320"/>
+        <c:axId val="365653264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360497176"/>
+        <c:axId val="365660320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6381,12 +7503,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360501880"/>
+        <c:crossAx val="365653264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360501880"/>
+        <c:axId val="365653264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6443,7 +7565,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360497176"/>
+        <c:crossAx val="365660320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6688,11 +7810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360501488"/>
-        <c:axId val="360500312"/>
+        <c:axId val="365659144"/>
+        <c:axId val="365654832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360501488"/>
+        <c:axId val="365659144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6749,12 +7871,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360500312"/>
+        <c:crossAx val="365654832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360500312"/>
+        <c:axId val="365654832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6811,7 +7933,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360501488"/>
+        <c:crossAx val="365659144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7056,11 +8178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="360501096"/>
-        <c:axId val="360503448"/>
+        <c:axId val="365656400"/>
+        <c:axId val="366152064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="360501096"/>
+        <c:axId val="365656400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7117,12 +8239,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360503448"/>
+        <c:crossAx val="366152064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="360503448"/>
+        <c:axId val="366152064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +8301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360501096"/>
+        <c:crossAx val="365656400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7588,7 +8710,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12552,7 +13794,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16685,15 +19475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16714,15 +19504,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -16745,15 +19535,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17210,6 +20000,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1204912</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17475,8 +20360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17509,56 +20394,56 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>2.8330000000000002</v>
@@ -17608,7 +20493,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>2.4220000000000002</v>
@@ -17658,7 +20543,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2">
         <v>1.6160000000000001</v>
@@ -17708,7 +20593,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>1.175</v>
@@ -17758,7 +20643,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>1.8660000000000001</v>
@@ -17808,7 +20693,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>1.3759999999999999</v>
@@ -17858,35 +20743,44 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B9" s="10">
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>5</v>
+      <c r="A11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B11">
-        <v>7.2392999999999999E-2</v>
+        <v>57777</v>
       </c>
       <c r="C11">
-        <v>0.108625</v>
+        <v>4373.92083</v>
       </c>
       <c r="D11">
-        <v>2.7909E-2</v>
+        <v>6454.4847609999997</v>
+      </c>
+      <c r="E11">
+        <v>1710.70445</v>
       </c>
       <c r="M11">
         <v>7.2392999999999999E-2</v>
@@ -17911,17 +20805,20 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
-        <v>6276.035621</v>
+        <v>124534</v>
       </c>
       <c r="C12">
-        <v>1612.47207</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
+        <v>7830.9002559999999</v>
+      </c>
+      <c r="D12">
+        <v>18570.984074</v>
+      </c>
+      <c r="E12">
+        <v>2637.5056770000001</v>
       </c>
       <c r="M12">
         <v>6.4041000000000001E-2</v>
@@ -17949,8 +20846,20 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>21513</v>
+      </c>
+      <c r="C13">
+        <v>1022.566137</v>
+      </c>
+      <c r="D13">
+        <v>2296.7756399999998</v>
+      </c>
+      <c r="E13">
+        <v>374.88111300000003</v>
       </c>
       <c r="M13">
         <v>4.3598999999999999E-2</v>
@@ -17962,7 +20871,7 @@
         <v>1.5469999999999999E-2</v>
       </c>
       <c r="S13" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="T13">
         <v>6286.6836009999997</v>
@@ -17971,12 +20880,24 @@
         <v>1613.8926939999999</v>
       </c>
       <c r="V13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>130003</v>
+      </c>
+      <c r="C14">
+        <v>4918.2240350000002</v>
+      </c>
+      <c r="D14">
+        <v>23875.787845999999</v>
+      </c>
+      <c r="E14">
+        <v>1440.3969219999999</v>
       </c>
       <c r="M14">
         <v>3.5527999999999997E-2</v>
@@ -17988,21 +20909,24 @@
         <v>1.0168E-2</v>
       </c>
       <c r="S14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>83112</v>
+      </c>
+      <c r="C15">
+        <v>4361.968433</v>
+      </c>
+      <c r="D15">
+        <v>11148.211966000001</v>
+      </c>
+      <c r="E15">
+        <v>1837.0729510000001</v>
       </c>
       <c r="M15">
         <v>5.2534999999999998E-2</v>
@@ -18014,21 +20938,24 @@
         <v>2.1545999999999999E-2</v>
       </c>
       <c r="S15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>10</v>
+      <c r="A16" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B16">
-        <v>6.4041000000000001E-2</v>
+        <v>103537</v>
       </c>
       <c r="C16">
-        <v>0.15229000000000001</v>
+        <v>3108.3423280000002</v>
       </c>
       <c r="D16">
-        <v>2.1807E-2</v>
+        <v>13963.689812000001</v>
+      </c>
+      <c r="E16">
+        <v>925.97506899999996</v>
       </c>
       <c r="M16">
         <v>2.7650000000000001E-2</v>
@@ -18040,7 +20967,7 @@
         <v>8.1460000000000005E-3</v>
       </c>
       <c r="S16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
         <v>1</v>
@@ -18057,19 +20984,26 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B17">
-        <v>18965.255813</v>
-      </c>
-      <c r="C17">
-        <v>2715.7563129999999</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
+        <f>SUM(B11:B16)</f>
+        <v>520476</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:E17" si="0">SUM(C11:C16)</f>
+        <v>25615.922018999998</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
+        <v>76309.934099000006</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
+        <v>8926.5361819999998</v>
       </c>
       <c r="S17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17">
         <v>6.4026E-2</v>
@@ -18086,10 +21020,22 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <f>C17/B17</f>
+        <v>4.9216336620708734E-2</v>
+      </c>
+      <c r="D18" s="5">
+        <f>D17/C17</f>
+        <v>2.9790039976854605</v>
+      </c>
+      <c r="E18" s="5">
+        <f>E17/D17</f>
+        <v>0.11697738030305777</v>
       </c>
       <c r="S18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="T18">
         <v>18997.710419999999</v>
@@ -18098,49 +21044,22 @@
         <v>2718.1397940000002</v>
       </c>
       <c r="V18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
       <c r="S19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
       <c r="S20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>4.3598999999999999E-2</v>
-      </c>
-      <c r="C21">
-        <v>0.10147</v>
-      </c>
-      <c r="D21">
-        <v>1.5469999999999999E-2</v>
-      </c>
       <c r="S21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U21" t="s">
         <v>1</v>
@@ -18156,20 +21075,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>2182.9333660000002</v>
-      </c>
-      <c r="C22">
-        <v>332.81453599999998</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
       <c r="S22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T22">
         <v>4.3588000000000002E-2</v>
@@ -18185,11 +21092,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
       <c r="S23" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="T23">
         <v>2186.6801599999999</v>
@@ -18198,49 +21102,22 @@
         <v>333.10885400000001</v>
       </c>
       <c r="V23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
       <c r="S24" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
       <c r="S25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>3.5527999999999997E-2</v>
-      </c>
-      <c r="C26">
-        <v>0.14880299999999999</v>
-      </c>
-      <c r="D26">
-        <v>1.0168E-2</v>
-      </c>
       <c r="S26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U26" t="s">
         <v>1</v>
@@ -18256,20 +21133,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>19344.842784</v>
-      </c>
-      <c r="C27">
-        <v>1321.9001699999999</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T27">
         <v>3.5519000000000002E-2</v>
@@ -18285,11 +21150,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
       <c r="S28" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="T28">
         <v>19378.366868000001</v>
@@ -18298,49 +21160,22 @@
         <v>1323.064484</v>
       </c>
       <c r="V28" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
       <c r="S29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
       <c r="S30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>5.2534999999999998E-2</v>
-      </c>
-      <c r="C31">
-        <v>0.128418</v>
-      </c>
-      <c r="D31">
-        <v>2.1545999999999999E-2</v>
-      </c>
       <c r="S31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U31" t="s">
         <v>1</v>
@@ -18356,20 +21191,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32">
-        <v>10673.074064</v>
-      </c>
-      <c r="C32">
-        <v>1790.7582609999999</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
       <c r="S32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="T32">
         <v>5.2521999999999999E-2</v>
@@ -18384,12 +21207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
+    <row r="33" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S33" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="T33">
         <v>10691.390154999999</v>
@@ -18398,49 +21218,22 @@
         <v>1792.3335179999999</v>
       </c>
       <c r="V33" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
+    <row r="34" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S34" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
+    <row r="35" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36">
-        <v>2.7650000000000001E-2</v>
-      </c>
-      <c r="C36">
-        <v>0.116984</v>
-      </c>
-      <c r="D36">
-        <v>8.1460000000000005E-3</v>
-      </c>
+    <row r="36" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U36" t="s">
         <v>1</v>
@@ -18455,21 +21248,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>12112.203520999999</v>
-      </c>
-      <c r="C37">
-        <v>843.42746299999999</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
+    <row r="37" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S37" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="T37">
         <v>2.7643000000000001E-2</v>
@@ -18484,12 +21265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
+    <row r="38" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S38" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="T38">
         <v>12133.189788</v>
@@ -18498,40 +21276,28 @@
         <v>844.16660400000001</v>
       </c>
       <c r="V38" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
+    <row r="39" spans="19:24" x14ac:dyDescent="0.15">
       <c r="S39" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" t="s">
+    <row r="40" spans="19:24" x14ac:dyDescent="0.15">
+      <c r="S40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="19:24" x14ac:dyDescent="0.15">
+      <c r="S41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T41" t="s">
         <v>32</v>
       </c>
-      <c r="S40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="S41" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" t="s">
-        <v>45</v>
-      </c>
       <c r="U41" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -18581,42 +21347,42 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="L2" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6">
         <v>2.8330000000000002</v>
@@ -18656,7 +21422,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>2.4220000000000002</v>
@@ -18696,7 +21462,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7">
         <v>1.6160000000000001</v>
@@ -18736,7 +21502,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>1.175</v>
@@ -18776,7 +21542,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7">
         <v>1.8660000000000001</v>
@@ -18816,7 +21582,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7">
         <v>1.3759999999999999</v>
@@ -18900,36 +21666,36 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>8.7659000000000001E-2</v>
@@ -18963,7 +21729,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>7.2797000000000001E-2</v>
@@ -18997,7 +21763,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>5.5631E-2</v>
@@ -19031,7 +21797,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5">
         <v>4.3976000000000001E-2</v>
@@ -19065,7 +21831,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>6.0589999999999998E-2</v>
@@ -19099,7 +21865,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>3.4986999999999997E-2</v>
@@ -19143,8 +21909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19174,36 +21940,36 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="H2" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>7.3730000000000004E-2</v>
@@ -19237,7 +22003,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5">
         <v>6.1232000000000002E-2</v>
@@ -19271,7 +22037,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5">
         <v>4.6077E-2</v>
@@ -19305,7 +22071,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5">
         <v>3.6794E-2</v>
@@ -19339,7 +22105,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>5.1180999999999997E-2</v>
@@ -19373,7 +22139,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>2.9152999999999998E-2</v>
@@ -19402,6 +22168,259 @@
         <v>1.2490000000000001</v>
       </c>
       <c r="J8" s="7">
+        <v>1.3759999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>7.5703000000000006E-2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.11171399999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.9609E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>AVERAGE(A3:C3)</f>
+        <v>7.2342000000000004E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>0.5*A3+0.3*B3+0.2*C3</f>
+        <v>7.7287500000000009E-2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>9.7620000000000005</v>
+      </c>
+      <c r="G3" s="14">
+        <v>9.8360000000000003</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I3" s="6">
+        <v>2.8330000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>6.2881999999999993E-2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.14912400000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.1179E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D8" si="0">AVERAGE(A4:C4)</f>
+        <v>7.772833333333333E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E8" si="1">0.5*A4+0.3*B4+0.2*C4</f>
+        <v>8.0413999999999999E-2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="G4" s="15">
+        <v>10.317</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.4220000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4.7531999999999998E-2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.106762</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.7426000000000001E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7239999999999992E-2</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>5.9279800000000001E-2</v>
+      </c>
+      <c r="F5" s="13">
+        <v>5.516</v>
+      </c>
+      <c r="G5" s="15">
+        <v>9.2829999999999995</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.6160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>3.7831999999999998E-2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.18365600000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.108E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.752266666666667E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>7.6228799999999999E-2</v>
+      </c>
+      <c r="F6" s="13">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6.8460000000000001</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5.2483000000000002E-2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.134135</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.2103999999999999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9574000000000011E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>7.0902800000000002E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>6.68</v>
+      </c>
+      <c r="G7" s="15">
+        <v>7.2</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.006</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1.8660000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>3.0022E-2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.13486699999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.9429999999999996E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7943999999999996E-2</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7259699999999997E-2</v>
+      </c>
+      <c r="F8" s="13">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="G8" s="15">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="I8" s="7">
         <v>1.3759999999999999</v>
       </c>
     </row>
